--- a/data/income_statement/2digits/size/78_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/78_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>78-Employment activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>78-Employment activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>252827.37343</v>
+        <v>252589.61613</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>228654.50709</v>
+        <v>228308.91745</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>260375.16825</v>
+        <v>254460.96037</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>330071.92953</v>
+        <v>330888.57579</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>368880.08069</v>
+        <v>367410.92249</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>485054.13848</v>
+        <v>484563.41855</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>617705.23849</v>
+        <v>601023.05689</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>644138.0392</v>
+        <v>632306.38896</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1358603.96221</v>
+        <v>1296119.81151</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1859258.38068</v>
+        <v>1996338.39235</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2362595.07755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2485063.23491</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3308931.168</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>244452.4099</v>
+        <v>244450.99193</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>220220.40047</v>
+        <v>219963.29547</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>250254.78974</v>
+        <v>244510.47434</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>311623.46942</v>
+        <v>312452.69878</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>355977.11148</v>
+        <v>354507.95329</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>443024.29067</v>
+        <v>442908.61567</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>542332.47205</v>
+        <v>527798.8575699999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>593368.22776</v>
+        <v>587815.82048</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1301947.25908</v>
+        <v>1254655.12308</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1759193.3159</v>
+        <v>1892560.95562</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2263038.2918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2379562.07428</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3151383.053</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>413.04918</v>
@@ -1040,70 +956,80 @@
         <v>12824.72322</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8873.763299999999</v>
+        <v>8873.763300000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>11110.05804</v>
+        <v>10735.05804</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>50392.67089</v>
+        <v>48321.49595</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>25155.30718</v>
+        <v>18920.60663</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>17149.04023</v>
+        <v>13289.5292</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>48032.61877</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>33452.60599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>33397.45669</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>45856.98</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>7961.914350000001</v>
+        <v>7725.57502</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>7729.32968</v>
+        <v>7640.84504</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>6697.77542</v>
+        <v>6527.88294</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>5623.736889999999</v>
+        <v>5611.15379</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4029.20591</v>
+        <v>4029.2059</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>30919.78977</v>
+        <v>30919.74484</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>24980.09555</v>
+        <v>24902.70337</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>25614.50426</v>
+        <v>25569.96185</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>39507.6629</v>
+        <v>28175.15923</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>52032.44601</v>
+        <v>55744.81795999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>66104.17976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>72103.70393999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>111691.135</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>881.34375</v>
@@ -1112,10 +1038,10 @@
         <v>352.07743</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>858.8034500000001</v>
+        <v>851.90247</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>972.38672</v>
+        <v>972.1244799999999</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>1875.61849</v>
@@ -1124,25 +1050,30 @@
         <v>1829.67921</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1827.03737</v>
+        <v>1487.50401</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>4113.33229</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>10582.25887</v>
+        <v>8984.103449999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>17468.22942</v>
+        <v>12844.48588</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>16404.20561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6155.291029999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>33753.086</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>753.33497</v>
@@ -1151,10 +1082,10 @@
         <v>184.59282</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>847.44111</v>
+        <v>840.54013</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>930.84591</v>
+        <v>930.58372</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>1654.09346</v>
@@ -1163,25 +1094,30 @@
         <v>1666.57187</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1771.25584</v>
+        <v>1431.72248</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>3675.44238</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>6755.56525</v>
+        <v>6256.81022</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>13367.45523</v>
+        <v>12552.15141</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>8115.535910000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>5045.90283</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>15251.244</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>92.49267999999999</v>
@@ -1193,7 +1129,7 @@
         <v>1.1073</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>24.76835</v>
+        <v>24.7683</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>0.51213</v>
@@ -1208,19 +1144,24 @@
         <v>0</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3778.83179</v>
+        <v>2681.47997</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3960.18118</v>
+        <v>150.52023</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>8259.88826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>217.38945</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>17655.363</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>35.5161</v>
@@ -1247,97 +1188,112 @@
         <v>437.88991</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>47.86183</v>
+        <v>45.81326</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>140.59301</v>
+        <v>141.81424</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>28.78144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>891.99875</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>846.479</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>251946.02968</v>
+        <v>251708.27238</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>228302.42966</v>
+        <v>227956.84002</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>259516.3648</v>
+        <v>253609.0579</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>329099.54281</v>
+        <v>329916.4513099999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>367004.4622</v>
+        <v>365535.304</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>483224.45927</v>
+        <v>482733.73934</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>615878.20112</v>
+        <v>599535.55288</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>640024.7069099999</v>
+        <v>628193.05667</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1348021.70334</v>
+        <v>1287135.70806</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1841790.15126</v>
+        <v>1983493.90647</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2346190.87194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2478907.94388</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3275178.082</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>202128.06036</v>
+        <v>202000.42989</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>187263.68224</v>
+        <v>187026.30161</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>216137.00972</v>
+        <v>212182.79028</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>279745.98764</v>
+        <v>280739.25266</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>309110.44464</v>
+        <v>307845.69271</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>417114.72011</v>
+        <v>416905.54276</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>536561.0091899999</v>
+        <v>526588.45415</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>548476.63199</v>
+        <v>535657.08287</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1184979.33907</v>
+        <v>1133254.28763</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1544789.78984</v>
+        <v>1676667.21563</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1963559.50292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2063767.7058</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2778541.486</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3142.94359</v>
@@ -1346,7 +1302,7 @@
         <v>3551.30334</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>9620.074950000002</v>
+        <v>9620.074949999998</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>5208.338110000001</v>
@@ -1361,22 +1317,27 @@
         <v>4507.52409</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3553.96207</v>
+        <v>3237.49749</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>31139.61946</v>
+        <v>28819.84375</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>48218.80338</v>
+        <v>50067.51987</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>44132.38547</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>33278.194</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>12316.87802</v>
@@ -1385,10 +1346,10 @@
         <v>9970.50476</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>6940.07943</v>
+        <v>6181.87557</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>12340.59237</v>
+        <v>11769.73813</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>36838.77864</v>
@@ -1397,64 +1358,74 @@
         <v>9299.081940000002</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>16228.69867</v>
+        <v>15999.63003</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>30054.20092</v>
+        <v>27579.22147</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>360455.91917</v>
+        <v>332700.50474</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>120594.98322</v>
+        <v>113254.52543</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>155230.96954</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>145771.64587</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>213052.792</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>186512.02075</v>
+        <v>186384.39028</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>173688.62057</v>
+        <v>173451.23994</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>199576.85534</v>
+        <v>196380.83976</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>262045.87347</v>
+        <v>263609.99273</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>271071.48054</v>
+        <v>269806.72861</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>406118.72054</v>
+        <v>406009.54319</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>515783.73445</v>
+        <v>506040.2480499999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>513253.76479</v>
+        <v>503225.6597000001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>792283.8189300001</v>
+        <v>770683.51763</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1365322.10318</v>
+        <v>1502691.27027</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1763145.8258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1872813.35235</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2528998.546</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>156.218</v>
@@ -1472,7 +1443,7 @@
         <v>52.37287999999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>250.08892</v>
+        <v>150.08892</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>41.05198</v>
@@ -1481,7 +1452,7 @@
         <v>1614.70421</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1099.98151</v>
+        <v>1050.42151</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>10653.90006</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>1050.32211</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>3211.954</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>49817.96932</v>
+        <v>49707.84249</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>41038.74742</v>
+        <v>40930.53840999999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>43379.35508</v>
+        <v>41426.26762000001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>49353.55517</v>
+        <v>49177.19865000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>57894.01756</v>
+        <v>57689.61128999999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>66109.73916</v>
+        <v>65828.19658</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>79317.19193</v>
+        <v>72947.09873</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>91548.07492</v>
+        <v>92535.97379999999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>163042.36427</v>
+        <v>153881.42043</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>297000.36142</v>
+        <v>306826.6908400001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>382631.36902</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>415140.23808</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>496636.596</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>45558.87805</v>
+        <v>45037.123</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>35993.40998</v>
+        <v>35716.44671</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>31946.50776</v>
+        <v>31189.32571</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>40553.08796</v>
+        <v>40104.22886</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>43568.47912</v>
+        <v>43078.04822</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>58061.61801000001</v>
+        <v>57554.11812</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>71133.74457</v>
+        <v>66220.39834</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>73230.35272</v>
+        <v>71465.24073</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>128010.75906</v>
+        <v>122282.81266</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>304707.2748</v>
+        <v>336063.6408</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>356374.03205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>392577.17745</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>503167.435</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>8.4</v>
@@ -1606,23 +1592,28 @@
       <c r="M21" s="48" t="n">
         <v>5490.42623</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>13748.813</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>9010.365210000002</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>10159.16385</v>
+        <v>10158.9474</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>3373.8427</v>
+        <v>3372.64879</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>6775.42496</v>
+        <v>6767.80803</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>5510.510719999999</v>
@@ -1631,142 +1622,162 @@
         <v>6835.87501</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>13112.07878</v>
+        <v>11608.51604</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>9794.643910000001</v>
+        <v>9220.54832</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>19909.1093</v>
+        <v>21295.37026</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>36362.23907</v>
+        <v>30581.41833</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>35338.06347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>29180.92618</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>29692.606</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>36540.11283999999</v>
+        <v>36018.35779</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>25831.83149</v>
+        <v>25555.08467</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>28570.77779</v>
+        <v>27814.78965</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>33650.28962999999</v>
+        <v>33209.04746</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>38054.43741</v>
+        <v>37564.00651000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>51179.27609000001</v>
+        <v>50671.7762</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>58021.66579</v>
+        <v>54611.8823</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>63435.70881</v>
+        <v>62244.69241</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>108101.64976</v>
+        <v>100987.4424</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>264999.29926</v>
+        <v>302136.486</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>315545.54235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>357905.82504</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>459726.016</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>4259.09127</v>
+        <v>4670.719489999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>5045.337439999999</v>
+        <v>5214.0917</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>11432.84732</v>
+        <v>10236.94191</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>8800.467210000001</v>
+        <v>9072.969789999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>14325.53844</v>
+        <v>14611.56307</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>8048.12115</v>
+        <v>8274.078460000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>8183.447359999999</v>
+        <v>6726.700390000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>18317.7222</v>
+        <v>21070.73307</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>35031.60521</v>
+        <v>31598.60777</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-7706.913379999999</v>
+        <v>-29236.94995999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>26257.33697</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>22563.06063</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-6530.839</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3958.24699</v>
+        <v>3123.70807</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3052.52468</v>
+        <v>2291.98162</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2572.11673</v>
+        <v>1759.34095</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3680.12087</v>
+        <v>2936.01107</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>8369.533229999999</v>
+        <v>2935.0706</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>13937.08526</v>
+        <v>12336.47491</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>17958.23691</v>
+        <v>17369.89714</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>14347.53959</v>
+        <v>11579.50078</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>23831.66446</v>
+        <v>18706.36289</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>22101.17091</v>
+        <v>27068.00618</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>21861.61214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>21329.28326</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>27238.369</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>116.7301</v>
@@ -1787,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>149.35801</v>
+        <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>190.43438</v>
@@ -1799,13 +1810,18 @@
         <v>4329.80971</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>110.01888</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.01717</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>4101.72545</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>151.795</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2517.97229</v>
+        <v>2464.22273</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1598.95739</v>
+        <v>1593.98567</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1386.571</v>
+        <v>1377.57209</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2464.49413</v>
+        <v>2458.26947</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1803.07817</v>
+        <v>1527.24378</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1787.07601</v>
+        <v>1516.32722</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4163.52299</v>
+        <v>4163.2455</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3620.22433</v>
+        <v>3334.28143</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>6031.47867</v>
+        <v>5547.215789999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>6030.171859999999</v>
+        <v>10496.70102</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>7680.514149999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>7364.36428</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>5319.219</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>11.51937</v>
@@ -1916,13 +1942,18 @@
         <v>0</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2.00617</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3.516</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>86.0921</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>332.54709</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>653.274</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>52.70494</v>
@@ -1973,7 +2009,7 @@
         <v>9.416090000000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>755.6299500000001</v>
+        <v>23.62995</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>15.03531</v>
@@ -1991,25 +2027,30 @@
         <v>10.03731</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1699.33265</v>
+        <v>3049.53554</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>81.01320999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>185.356</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>914.4525</v>
+        <v>133.66344</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>874.3087800000001</v>
+        <v>118.73744</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>906.4790399999999</v>
+        <v>103.24198</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>175.54514</v>
@@ -2018,28 +2059,33 @@
         <v>683.28614</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>9692.48078</v>
+        <v>9312.970720000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>11250.49708</v>
+        <v>10843.2052</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>8267.15547</v>
+        <v>4364.820769999999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>15652.46275</v>
+        <v>11101.55444</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>4516.74812</v>
+        <v>3241.72164</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3621.4438</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3347.61475</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>9282.59</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>165.969</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.00018</v>
@@ -2108,64 +2159,74 @@
         <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>0</v>
+        <v>116.38703</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>258.77551</v>
+        <v>258.77521</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>466.46103</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>252.5271</v>
+        <v>251.98729</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>233.1822</v>
+        <v>227.29706</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5696.374849999999</v>
+        <v>537.74661</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2180.02435</v>
+        <v>1229.67285</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2016.04331</v>
+        <v>1984.63092</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1895.96956</v>
+        <v>3316.20835</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1989.94484</v>
+        <v>1899.81446</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4654.25418</v>
+        <v>4962.99685</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>5934.349560000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>6099.995140000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>11476.65</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1833.02837</v>
+        <v>1092.26328</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1155.75134</v>
+        <v>577.7326400000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2654.33593</v>
+        <v>859.2377700000001</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>1106.74491</v>
@@ -2174,28 +2235,33 @@
         <v>549.66899</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>9524.89495</v>
+        <v>9276.36795</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>16567.56023</v>
+        <v>16214.04646</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>14996.36156</v>
+        <v>13865.93617</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>28739.43455</v>
+        <v>25064.99621</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>7632.55192</v>
+        <v>6986.30973</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>11335.1961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>10426.49564</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>17409.936</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1.78476</v>
@@ -2204,7 +2270,7 @@
         <v>1.8983</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>18.28927</v>
+        <v>5.139270000000001</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>15.11048</v>
@@ -2219,22 +2285,27 @@
         <v>11.9519</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1.38486</v>
+        <v>0.88486</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7.296819999999999</v>
+        <v>0.16122</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>421.9763</v>
+        <v>415.391</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1159.79376</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1143.25717</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>86.13200000000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>666.41225</v>
@@ -2264,16 +2335,21 @@
         <v>1482.70207</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>992.00738</v>
+        <v>1526.69067</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>980.90615</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1980.90615</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>8843.5</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2303,25 +2379,30 @@
         <v>18.00474</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0</v>
+        <v>0.19263</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>867.17412</v>
+        <v>126.43031</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>671.37352</v>
+        <v>93.35482</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1809.19049</v>
+        <v>27.24353</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>226.42735</v>
@@ -2330,28 +2411,33 @@
         <v>195.0688</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>8311.944150000001</v>
+        <v>8063.41715</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>14116.16346</v>
+        <v>13762.64989</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>12517.24328</v>
+        <v>10308.84459</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>24146.98189</v>
+        <v>20479.67923</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2851.51412</v>
+        <v>1676.98118</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3452.97993</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3198.87876</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3516.238</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>10.21414</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.10289</v>
@@ -2425,20 +2516,25 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>287.34021</v>
+        <v>287.31893</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>111.1285</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>765.2760700000001</v>
+        <v>765.27487</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>255.88879</v>
@@ -2450,103 +2546,118 @@
         <v>812.3455300000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1452.5672</v>
+        <v>1452.567</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2110.22393</v>
+        <v>3188.69723</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3084.44903</v>
+        <v>3084.44895</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3367.05412</v>
+        <v>3367.05425</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5741.516259999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>4103.45356</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4964.066</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2963.60297</v>
+        <v>2894.49947</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2509.73634</v>
+        <v>2508.38512</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3654.02479</v>
+        <v>2723.08159</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>3356.44926</v>
+        <v>4715.39856</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>2693.90511</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>5168.445050000001</v>
+        <v>4409.584589999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>7085.446550000001</v>
+        <v>6160.074300000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>9576.936659999999</v>
+        <v>8517.329280000002</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>9751.156489999998</v>
+        <v>8798.05075</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>16159.49596</v>
+        <v>14839.38978</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>19215.09429</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>15273.47431</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>11395.25</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2963.60297</v>
+        <v>2894.49947</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2509.73634</v>
+        <v>2508.38512</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3647.64374</v>
+        <v>2716.70054</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>3250.55975</v>
+        <v>4609.50905</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>2666.37254</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>5168.445050000001</v>
+        <v>4409.584589999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>6931.018720000001</v>
+        <v>6147.43118</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>9576.936659999999</v>
+        <v>8517.329280000002</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>9751.156489999998</v>
+        <v>8798.05075</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>15987.93422</v>
+        <v>14667.82804</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>18804.04743</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>14862.42745</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>11347.569</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2567,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>154.42783</v>
+        <v>12.64312</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>0</v>
@@ -2581,92 +2692,107 @@
       <c r="M46" s="48" t="n">
         <v>411.04686</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>47.681</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>3420.70692</v>
+        <v>3807.66481</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>4432.37444</v>
+        <v>4419.955559999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>7696.60333</v>
+        <v>8413.9635</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>8017.39391</v>
+        <v>6186.83739</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>19451.49757</v>
+        <v>14303.05957</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>7291.866410000001</v>
+        <v>6924.60083</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2488.67749</v>
+        <v>1722.47677</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>8091.96357</v>
+        <v>10266.9684</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>20372.67863</v>
+        <v>16441.9237</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-9397.790350000001</v>
+        <v>-23994.64329</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>17568.65872</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>18192.37394</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-8097.656</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2351.60306</v>
+        <v>1279.89485</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1546.2915</v>
+        <v>1391.46325</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2223.50823</v>
+        <v>1641.29941</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2339.55484</v>
+        <v>4220.064270000001</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>1396.37911</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1679.02568</v>
+        <v>1677.00701</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1920.74063</v>
+        <v>1748.85234</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1945.76047</v>
+        <v>1945.76026</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>3723.09048</v>
+        <v>3614.04635</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>24622.61112</v>
+        <v>24619.69231</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>16493.22679</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>16936.09781</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>23041.334</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1075.14451</v>
+        <v>151.48412</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>0.03799</v>
@@ -2698,92 +2824,107 @@
       <c r="M49" s="48" t="n">
         <v>39.20011</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>76.521</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1276.45855</v>
+        <v>1128.41073</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1546.25351</v>
+        <v>1391.42526</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2209.63075</v>
+        <v>1627.42193</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2222.56037</v>
+        <v>4103.0698</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>1396.37911</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1679.02568</v>
+        <v>1677.00701</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1920.54063</v>
+        <v>1748.65234</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1907.69947</v>
+        <v>1907.69926</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3718.34733</v>
+        <v>3609.3032</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>24540.61108</v>
+        <v>24537.69227</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>16454.02668</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>16896.8977</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>22964.813</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>1275.39788</v>
+        <v>1185.78642</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1371.91677</v>
+        <v>1356.75961</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>10706.41502</v>
+        <v>4772.76112</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1730.44647</v>
+        <v>1706.21966</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1836.35349</v>
+        <v>1943.73615</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>16670.87833</v>
+        <v>13040.41737</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3364.12432</v>
+        <v>2250.52191</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>15406.48969</v>
+        <v>15166.11713</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4472.305179999999</v>
+        <v>3674.0003</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>15322.94337</v>
+        <v>15038.25832</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>11642.3591</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>10937.07648</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>16484.408</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>0.59377</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>0</v>
@@ -2801,7 +2942,7 @@
         <v>327.85412</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>529.50396</v>
+        <v>259.02687</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>139.02215</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>159.27226</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>143.918</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>499.46625</v>
+        <v>411.9549699999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>45.23651</v>
+        <v>30.07935</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>209.46778</v>
+        <v>132.79269</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>334.56862</v>
+        <v>333.91862</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>91.58738000000001</v>
+        <v>168.71462</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>132.58385</v>
+        <v>124.77135</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>355.81223</v>
+        <v>349.33135</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>477.56756</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>339.06292</v>
+        <v>298.66722</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>438.71186</v>
+        <v>427.3442</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>367.79918</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>4550.668</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>775.33786</v>
+        <v>773.8314499999999</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>1326.68026</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>10496.94724</v>
+        <v>4639.96843</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1395.87785</v>
+        <v>1372.30104</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1744.76611</v>
+        <v>1775.02153</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>16210.44036</v>
+        <v>12587.7919</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2478.80813</v>
+        <v>1642.16369</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>14789.89998</v>
+        <v>14549.52742</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3375.84173</v>
+        <v>2617.93255</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>14748.51258</v>
+        <v>14475.19519</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>11115.28766</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>10410.00504</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>11789.822</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>4496.9121</v>
+        <v>3901.77324</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4606.74917</v>
+        <v>4454.6592</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-786.30346</v>
+        <v>5282.50179</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>8626.502279999999</v>
+        <v>8700.682000000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>19011.52319</v>
+        <v>13755.70253</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-7699.98624</v>
+        <v>-4438.80953</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1045.2938</v>
+        <v>1220.8072</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-5368.76565</v>
+        <v>-2953.38847</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>19623.46393</v>
+        <v>16381.96975</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-98.12260000000003</v>
+        <v>-14413.2093</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>22419.52641</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>24191.39527</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1540.73</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1850.72311</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1679.90117</v>
+        <v>1674.16168</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2952.23055</v>
+        <v>2911.2076</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3337.529230000001</v>
+        <v>3349.50386</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4036.37423</v>
+        <v>3006.98223</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>3189.0802</v>
+        <v>3094.25763</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4834.089099999999</v>
+        <v>4522.70947</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4891.33441</v>
+        <v>4729.80801</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>5645.638319999999</v>
+        <v>4966.25672</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>13450.30005</v>
+        <v>13936.99217</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>18288.02921</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>19649.02812</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>22240.651</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>2646.18899</v>
+        <v>2051.05013</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2926.848</v>
+        <v>2780.49752</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-3738.53401</v>
+        <v>2371.29419</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5288.97305</v>
+        <v>5351.178140000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>14975.14896</v>
+        <v>10748.7203</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-10889.06644</v>
+        <v>-7533.067160000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-3788.7953</v>
+        <v>-3301.90227</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-10260.10006</v>
+        <v>-7683.196480000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>13977.82561</v>
+        <v>11415.71303</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-13548.42265</v>
+        <v>-28350.20147</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4131.4972</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4542.36715</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-23781.381</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>388</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>